--- a/data/ohio/input_file.xlsx
+++ b/data/ohio/input_file.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\herşey\R_projects\GTFS_for_Athens\data\ohio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376EF5AD-5133-407C-96D8-7272F5BC123A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C5DD7-3A79-489E-A8E7-AD3C79760B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" activeTab="1" xr2:uid="{C1864C25-24E0-4499-B200-D409B322D391}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" activeTab="2" xr2:uid="{C1864C25-24E0-4499-B200-D409B322D391}"/>
   </bookViews>
   <sheets>
     <sheet name="stops" sheetId="6" r:id="rId1"/>
     <sheet name="routes" sheetId="1" r:id="rId2"/>
+    <sheet name="schedules" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">routes!$A$1:$I$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">routes!$F$1:$F$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="154">
   <si>
     <t>Parkersburg Marathon Station - 573 Point Dr</t>
   </si>
@@ -493,6 +494,12 @@
   </si>
   <si>
     <t>Columbus_Airport</t>
+  </si>
+  <si>
+    <t>trip_id</t>
+  </si>
+  <si>
+    <t>arrival_time</t>
   </si>
 </sst>
 </file>
@@ -565,13 +572,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,7 +899,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1541,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E20CE77-753C-420F-A2BA-CA8B26218994}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2161,18 +2171,18 @@
         <v>16</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="3">
         <f>VLOOKUP(F20,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.222244763663198</v>
       </c>
       <c r="I20" s="3">
         <f>VLOOKUP(F20,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.809730001849005</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -2192,18 +2202,18 @@
         <v>27</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="3">
         <f>VLOOKUP(F21,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.413155199999999</v>
       </c>
       <c r="I21" s="3">
         <f>VLOOKUP(F21,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.455303299999997</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -2223,18 +2233,18 @@
         <v>37</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="3">
         <f>VLOOKUP(F22,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.228019119087698</v>
       </c>
       <c r="I22" s="3">
         <f>VLOOKUP(F22,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.516891756708802</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -2254,18 +2264,18 @@
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="3">
         <f>VLOOKUP(F23,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.212488339037101</v>
       </c>
       <c r="I23" s="3">
         <f>VLOOKUP(F23,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-84.459275131895296</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -2285,18 +2295,18 @@
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="3">
         <f>VLOOKUP(F24,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.133891823575702</v>
       </c>
       <c r="I24" s="3">
         <f>VLOOKUP(F24,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-84.509238295836198</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -2316,18 +2326,18 @@
         <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="3">
         <f>VLOOKUP(F25,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.082903195262602</v>
       </c>
       <c r="I25" s="3">
         <f>VLOOKUP(F25,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-84.152953196812703</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2347,18 +2357,18 @@
         <v>40</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="3">
         <f>VLOOKUP(F26,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.034428506152899</v>
       </c>
       <c r="I26" s="3">
         <f>VLOOKUP(F26,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-83.563848894437101</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -2378,18 +2388,18 @@
         <v>38</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="3">
         <f>VLOOKUP(F27,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>38.932899432604501</v>
       </c>
       <c r="I27" s="3">
         <f>VLOOKUP(F27,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-83.417927516437004</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -2409,18 +2419,18 @@
         <v>39</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="3">
         <f>VLOOKUP(F28,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.0626082</v>
       </c>
       <c r="I28" s="3">
         <f>VLOOKUP(F28,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-83.017178900000005</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2440,18 +2450,18 @@
         <v>20</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="3">
         <f>VLOOKUP(F29,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.037348049999999</v>
       </c>
       <c r="I29" s="3">
         <f>VLOOKUP(F29,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-82.624113794364305</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2471,18 +2481,18 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="3">
         <f>VLOOKUP(F30,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.234185444432299</v>
       </c>
       <c r="I30" s="3">
         <f>VLOOKUP(F30,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-82.196805583952994</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2626,18 +2636,18 @@
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="3">
         <f>VLOOKUP(F35,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.234185444432299</v>
       </c>
       <c r="I35" s="3">
         <f>VLOOKUP(F35,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-82.196805583952994</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -2657,18 +2667,18 @@
         <v>20</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="3">
         <f>VLOOKUP(F36,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.037348049999999</v>
       </c>
       <c r="I36" s="3">
         <f>VLOOKUP(F36,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-82.624113794364305</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2688,18 +2698,18 @@
         <v>39</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H37" s="3">
         <f>VLOOKUP(F37,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.0626082</v>
       </c>
       <c r="I37" s="3">
         <f>VLOOKUP(F37,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-83.017178900000005</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2719,18 +2729,18 @@
         <v>38</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="3">
         <f>VLOOKUP(F38,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>38.932899432604501</v>
       </c>
       <c r="I38" s="3">
         <f>VLOOKUP(F38,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-83.417927516437004</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2750,18 +2760,18 @@
         <v>40</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="3">
         <f>VLOOKUP(F39,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.034428506152899</v>
       </c>
       <c r="I39" s="3">
         <f>VLOOKUP(F39,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-83.563848894437101</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2781,18 +2791,18 @@
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="3">
         <f>VLOOKUP(F40,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.082903195262602</v>
       </c>
       <c r="I40" s="3">
         <f>VLOOKUP(F40,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-84.152953196812703</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2812,18 +2822,18 @@
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="3">
         <f>VLOOKUP(F41,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.133891823575702</v>
       </c>
       <c r="I41" s="3">
         <f>VLOOKUP(F41,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-84.509238295836198</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -2843,18 +2853,18 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="3">
         <f>VLOOKUP(F42,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.212488339037101</v>
       </c>
       <c r="I42" s="3">
         <f>VLOOKUP(F42,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-84.459275131895296</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2936,18 +2946,18 @@
         <v>37</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H45" s="3">
         <f>VLOOKUP(F45,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.228019119087698</v>
       </c>
       <c r="I45" s="3">
         <f>VLOOKUP(F45,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.516891756708802</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2967,18 +2977,18 @@
         <v>27</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H46" s="3">
         <f>VLOOKUP(F46,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.413155199999999</v>
       </c>
       <c r="I46" s="3">
         <f>VLOOKUP(F46,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.455303299999997</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2998,18 +3008,18 @@
         <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H47" s="3">
         <f>VLOOKUP(F47,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.738387766040603</v>
       </c>
       <c r="I47" s="3">
         <f>VLOOKUP(F47,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.530170801648495</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -3029,18 +3039,18 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="3">
         <f>VLOOKUP(F48,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>40.0005203080648</v>
       </c>
       <c r="I48" s="3">
         <f>VLOOKUP(F48,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.576174451128296</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -3060,18 +3070,18 @@
         <v>36</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H49" s="3">
         <f>VLOOKUP(F49,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>40.286569639839101</v>
       </c>
       <c r="I49" s="3">
         <f>VLOOKUP(F49,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.564200806323498</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -3091,18 +3101,18 @@
         <v>34</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H50" s="3">
         <f>VLOOKUP(F50,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>40.491876901847697</v>
       </c>
       <c r="I50" s="3">
         <f>VLOOKUP(F50,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.481297102880305</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -3122,18 +3132,18 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="3">
         <f>VLOOKUP(F51,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>40.797874387755101</v>
       </c>
       <c r="I51" s="3">
         <f>VLOOKUP(F51,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.370974693877599</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -3153,18 +3163,18 @@
         <v>1</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H52" s="3">
         <f>VLOOKUP(F52,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>41.068637000000003</v>
       </c>
       <c r="I52" s="3">
         <f>VLOOKUP(F52,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.524315000000001</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -3184,18 +3194,18 @@
         <v>7</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H53" s="3">
         <f>VLOOKUP(F53,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>41.3157898077325</v>
       </c>
       <c r="I53" s="3">
         <f>VLOOKUP(F53,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.653323942789996</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -3215,18 +3225,18 @@
         <v>12</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H54" s="3">
         <f>VLOOKUP(F54,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>41.5031872828283</v>
       </c>
       <c r="I54" s="3">
         <f>VLOOKUP(F54,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.682033767676799</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -3246,18 +3256,18 @@
         <v>12</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H55" s="3">
         <f>VLOOKUP(F55,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>41.5031872828283</v>
       </c>
       <c r="I55" s="3">
         <f>VLOOKUP(F55,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.682033767676799</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -3277,18 +3287,18 @@
         <v>7</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H56" s="3">
         <f>VLOOKUP(F56,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>41.3157898077325</v>
       </c>
       <c r="I56" s="3">
         <f>VLOOKUP(F56,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.653323942789996</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -3308,18 +3318,18 @@
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H57" s="3">
         <f>VLOOKUP(F57,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>41.068637000000003</v>
       </c>
       <c r="I57" s="3">
         <f>VLOOKUP(F57,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.524315000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -3339,18 +3349,18 @@
         <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H58" s="3">
         <f>VLOOKUP(F58,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>40.797874387755101</v>
       </c>
       <c r="I58" s="3">
         <f>VLOOKUP(F58,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.370974693877599</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -3370,18 +3380,18 @@
         <v>34</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H59" s="3">
         <f>VLOOKUP(F59,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>40.491876901847697</v>
       </c>
       <c r="I59" s="3">
         <f>VLOOKUP(F59,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.481297102880305</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -3401,18 +3411,18 @@
         <v>36</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="3">
         <f>VLOOKUP(F60,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>40.286569639839101</v>
       </c>
       <c r="I60" s="3">
         <f>VLOOKUP(F60,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.564200806323498</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -3432,18 +3442,18 @@
         <v>9</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H61" s="3">
         <f>VLOOKUP(F61,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>40.0005203080648</v>
       </c>
       <c r="I61" s="3">
         <f>VLOOKUP(F61,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.576174451128296</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -3463,18 +3473,18 @@
         <v>8</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H62" s="3">
         <f>VLOOKUP(F62,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.738387766040603</v>
       </c>
       <c r="I62" s="3">
         <f>VLOOKUP(F62,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.530170801648495</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -3494,18 +3504,18 @@
         <v>27</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H63" s="3">
         <f>VLOOKUP(F63,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.413155199999999</v>
       </c>
       <c r="I63" s="3">
         <f>VLOOKUP(F63,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.455303299999997</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -3525,18 +3535,18 @@
         <v>16</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H64" s="3">
         <f>VLOOKUP(F64,stops!$A$2:$D$45,3,FALSE)</f>
-        <v>39.337581083333298</v>
+        <v>39.222244763663198</v>
       </c>
       <c r="I64" s="3">
         <f>VLOOKUP(F64,stops!$A$2:$D$45,4,FALSE)</f>
-        <v>-82.075599520833293</v>
+        <v>-81.809730001849005</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -5090,7 +5100,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I114" xr:uid="{12720985-9626-42D0-AC57-EC4182CDADFC}"/>
+  <autoFilter ref="F1:F114" xr:uid="{8F45619D-8043-4D46-AE16-665B0F26ED66}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I114">
     <sortCondition ref="A2:A114"/>
     <sortCondition ref="C2:C114"/>
@@ -5099,4 +5109,5023 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEEC64B-CEF0-48C8-8C52-F5FCFB00C56E}">
+  <dimension ref="A1:H185"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="H185" sqref="H185"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <f>IF(A2&lt;&gt;A1,1,E1+1)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.2638888888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E66" si="0">IF(A3&lt;&gt;A2,1,E2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.27430555555555552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.2951388888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.31944444444444448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.33680555555555558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="6">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>37</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="6">
+        <v>24</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.53819444444444442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="6">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F16" s="6">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.58680555555555558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="6">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.60763888888888895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.73611111111111116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.74652777777777779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>33</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.76041666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="6">
+        <v>24</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F23" s="6">
+        <v>22</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.79861111111111116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F24" s="6">
+        <v>13</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.82291666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F25" s="6">
+        <v>15</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F26" s="6">
+        <v>14</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>13</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.2986111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F29" s="6">
+        <v>22</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F30" s="6">
+        <v>24</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="6">
+        <v>33</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>4</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F32" s="6">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.37847222222222227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>4</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F33" s="6">
+        <v>4</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>4</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F34" s="6">
+        <v>16</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F35" s="6">
+        <v>27</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F36" s="6">
+        <v>37</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.46527777777777773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>14</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>5</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>13</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F39" s="6">
+        <v>22</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>5</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F40" s="6">
+        <v>24</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>5</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F41" s="6">
+        <v>33</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>5</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F42" s="6">
+        <v>4</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>5</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F43" s="6">
+        <v>5</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>14</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.61458333333333337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>6</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>15</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>6</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F46" s="6">
+        <v>13</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0.64236111111111105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>6</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F47" s="6">
+        <v>22</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>6</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F48" s="6">
+        <v>24</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0.70138888888888884</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>6</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F49" s="6">
+        <v>33</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0.71180555555555547</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>6</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F50" s="6">
+        <v>5</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.73611111111111116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>6</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F51" s="6">
+        <v>4</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.74652777777777779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>7</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
+        <v>3</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0.23611111111111113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>7</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="6">
+        <v>11</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.24652777777777779</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>7</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F54" s="6">
+        <v>6</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>7</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F55" s="6">
+        <v>40</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0.30208333333333331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>7</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F56" s="6">
+        <v>38</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0.30902777777777779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>7</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F57" s="6">
+        <v>39</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.3298611111111111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>7</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F58" s="6">
+        <v>20</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>7</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>7</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F60" s="6">
+        <v>4</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0.38541666666666669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>7</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F61" s="6">
+        <v>5</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>8</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="6">
+        <v>3</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>8</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F63" s="6">
+        <v>11</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0.58680555555555558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>8</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F64" s="6">
+        <v>6</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>8</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F65" s="6">
+        <v>40</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>8</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F66" s="6">
+        <v>38</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0.65277777777777779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>8</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" ref="E67:E130" si="1">IF(A67&lt;&gt;A66,1,E66+1)</f>
+        <v>6</v>
+      </c>
+      <c r="F67" s="6">
+        <v>39</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>8</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F68" s="6">
+        <v>20</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="8">
+        <v>0.69444444444444453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>8</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F69" s="6">
+        <v>2</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="8">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>8</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F70" s="6">
+        <v>4</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H70" s="8">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>8</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F71" s="6">
+        <v>5</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" s="8">
+        <v>0.73611111111111116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>9</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
+        <v>4</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0.38541666666666669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>9</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F73" s="6">
+        <v>5</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H73" s="8">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>9</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F74" s="6">
+        <v>2</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>9</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F75" s="6">
+        <v>20</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H75" s="8">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="6">
+        <v>9</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F76" s="6">
+        <v>39</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76" s="8">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
+        <v>9</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+      <c r="E77" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F77" s="6">
+        <v>38</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77" s="8">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="6">
+        <v>9</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1</v>
+      </c>
+      <c r="E78" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F78" s="6">
+        <v>40</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H78" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>9</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F79" s="6">
+        <v>6</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H79" s="8">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="6">
+        <v>9</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F80" s="6">
+        <v>11</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="8">
+        <v>0.53819444444444442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>9</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1</v>
+      </c>
+      <c r="E81" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F81" s="6">
+        <v>3</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H81" s="8">
+        <v>0.54861111111111105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="6">
+        <v>10</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="6">
+        <v>4</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H82" s="8">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
+        <v>10</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F83" s="6">
+        <v>5</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" s="8">
+        <v>0.74652777777777779</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="6">
+        <v>10</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1</v>
+      </c>
+      <c r="E84" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F84" s="6">
+        <v>2</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" s="8">
+        <v>0.75347222222222221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>10</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F85" s="6">
+        <v>20</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H85" s="8">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
+        <v>10</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="6">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F86" s="6">
+        <v>39</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H86" s="8">
+        <v>0.79861111111111116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>10</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F87" s="6">
+        <v>38</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H87" s="8">
+        <v>0.81944444444444453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="6">
+        <v>10</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F88" s="6">
+        <v>40</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H88" s="8">
+        <v>0.83680555555555547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
+        <v>10</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F89" s="6">
+        <v>6</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H89" s="8">
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="6">
+        <v>10</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="6">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F90" s="6">
+        <v>11</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H90" s="8">
+        <v>0.88541666666666663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
+        <v>10</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="6">
+        <v>1</v>
+      </c>
+      <c r="E91" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F91" s="6">
+        <v>3</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H91" s="8">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="6">
+        <v>11</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="6">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F92" s="6">
+        <v>5</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H92" s="8">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="6">
+        <v>11</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F93" s="6">
+        <v>4</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H93" s="8">
+        <v>0.41319444444444442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="6">
+        <v>11</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F94" s="6">
+        <v>27</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H94" s="8">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="6">
+        <v>11</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0</v>
+      </c>
+      <c r="E95" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F95" s="6">
+        <v>8</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H95" s="8">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="6">
+        <v>11</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0</v>
+      </c>
+      <c r="E96" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F96" s="6">
+        <v>9</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H96" s="8">
+        <v>0.49652777777777773</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="6">
+        <v>11</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F97" s="6">
+        <v>36</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H97" s="8">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="6">
+        <v>11</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F98" s="6">
+        <v>34</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0.54861111111111105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="6">
+        <v>11</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="6">
+        <v>0</v>
+      </c>
+      <c r="E99" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F99" s="6">
+        <v>10</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H99" s="8">
+        <v>0.56944444444444442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="6">
+        <v>11</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0</v>
+      </c>
+      <c r="E100" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F100" s="6">
+        <v>1</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="6">
+        <v>11</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="6">
+        <v>0</v>
+      </c>
+      <c r="E101" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F101" s="6">
+        <v>7</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H101" s="8">
+        <v>0.61458333333333337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="6">
+        <v>11</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0</v>
+      </c>
+      <c r="E102" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F102" s="6">
+        <v>12</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H102" s="8">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="6">
+        <v>12</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="6">
+        <v>0</v>
+      </c>
+      <c r="E103" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F103" s="6">
+        <v>5</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0.63194444444444442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="6">
+        <v>12</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="6">
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F104" s="6">
+        <v>4</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H104" s="8">
+        <v>0.64236111111111105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="6">
+        <v>12</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="6">
+        <v>0</v>
+      </c>
+      <c r="E105" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F105" s="6">
+        <v>37</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H105" s="8">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="6">
+        <v>12</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0</v>
+      </c>
+      <c r="E106" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F106" s="6">
+        <v>27</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H106" s="8">
+        <v>0.69097222222222221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="6">
+        <v>12</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F107" s="6">
+        <v>9</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H107" s="8">
+        <v>0.72569444444444453</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="6">
+        <v>12</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0</v>
+      </c>
+      <c r="E108" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F108" s="6">
+        <v>36</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H108" s="8">
+        <v>0.74652777777777779</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="6">
+        <v>12</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0</v>
+      </c>
+      <c r="E109" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F109" s="6">
+        <v>34</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" s="8">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="6">
+        <v>12</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="6">
+        <v>0</v>
+      </c>
+      <c r="E110" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F110" s="6">
+        <v>10</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H110" s="8">
+        <v>0.78819444444444453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="6">
+        <v>12</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0</v>
+      </c>
+      <c r="E111" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F111" s="6">
+        <v>1</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H111" s="8">
+        <v>0.81597222222222221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="6">
+        <v>12</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="6">
+        <v>0</v>
+      </c>
+      <c r="E112" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F112" s="6">
+        <v>12</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H112" s="8">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="6">
+        <v>13</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1</v>
+      </c>
+      <c r="E113" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F113" s="6">
+        <v>12</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H113" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="6">
+        <v>13</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114" s="6">
+        <v>1</v>
+      </c>
+      <c r="E114" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F114" s="6">
+        <v>1</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114" s="8">
+        <v>0.23958333333333334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="6">
+        <v>13</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1</v>
+      </c>
+      <c r="E115" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F115" s="6">
+        <v>10</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H115" s="8">
+        <v>0.26041666666666669</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="6">
+        <v>13</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1</v>
+      </c>
+      <c r="E116" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F116" s="6">
+        <v>34</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H116" s="8">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="6">
+        <v>13</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1</v>
+      </c>
+      <c r="E117" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F117" s="6">
+        <v>9</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117" s="8">
+        <v>0.30902777777777779</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="6">
+        <v>13</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1</v>
+      </c>
+      <c r="E118" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F118" s="6">
+        <v>8</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H118" s="8">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="6">
+        <v>13</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
+      </c>
+      <c r="E119" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F119" s="6">
+        <v>27</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H119" s="8">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="6">
+        <v>13</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1</v>
+      </c>
+      <c r="E120" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F120" s="6">
+        <v>4</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H120" s="8">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="6">
+        <v>13</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+      <c r="E121" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F121" s="6">
+        <v>5</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H121" s="8">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="6">
+        <v>14</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1</v>
+      </c>
+      <c r="E122" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F122" s="6">
+        <v>12</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H122" s="8">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="6">
+        <v>14</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" s="6">
+        <v>1</v>
+      </c>
+      <c r="E123" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F123" s="6">
+        <v>7</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H123" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="6">
+        <v>14</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D124" s="6">
+        <v>1</v>
+      </c>
+      <c r="E124" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F124" s="6">
+        <v>1</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H124" s="8">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="6">
+        <v>14</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
+      <c r="E125" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F125" s="6">
+        <v>10</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H125" s="8">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="6">
+        <v>14</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1</v>
+      </c>
+      <c r="E126" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F126" s="6">
+        <v>34</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H126" s="8">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="6">
+        <v>14</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
+      <c r="E127" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F127" s="6">
+        <v>36</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H127" s="8">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="6">
+        <v>14</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1</v>
+      </c>
+      <c r="E128" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F128" s="6">
+        <v>9</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H128" s="8">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="6">
+        <v>14</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1</v>
+      </c>
+      <c r="E129" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F129" s="6">
+        <v>8</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H129" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="6">
+        <v>14</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1</v>
+      </c>
+      <c r="E130" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F130" s="6">
+        <v>27</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H130" s="8">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" s="6">
+        <v>14</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" s="6">
+        <v>1</v>
+      </c>
+      <c r="E131" s="6">
+        <f t="shared" ref="E131:E185" si="2">IF(A131&lt;&gt;A130,1,E130+1)</f>
+        <v>10</v>
+      </c>
+      <c r="F131" s="6">
+        <v>16</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H131" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="6">
+        <v>14</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1</v>
+      </c>
+      <c r="E132" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F132" s="6">
+        <v>4</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H132" s="8">
+        <v>0.60069444444444442</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="6">
+        <v>14</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F133" s="6">
+        <v>5</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H133" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" s="6">
+        <v>15</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0</v>
+      </c>
+      <c r="E134" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F134" s="6">
+        <v>14</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H134" s="8">
+        <v>0.25347222222222221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" s="6">
+        <v>15</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0</v>
+      </c>
+      <c r="E135" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F135" s="6">
+        <v>13</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H135" s="8">
+        <v>0.2638888888888889</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="6">
+        <v>15</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136" s="6">
+        <v>0</v>
+      </c>
+      <c r="E136" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F136" s="6">
+        <v>15</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H136" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="6">
+        <v>15</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D137" s="6">
+        <v>0</v>
+      </c>
+      <c r="E137" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F137" s="6">
+        <v>31</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H137" s="8">
+        <v>0.30902777777777779</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" s="6">
+        <v>15</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" s="6">
+        <v>0</v>
+      </c>
+      <c r="E138" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F138" s="6">
+        <v>26</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H138" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="6">
+        <v>15</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="6">
+        <v>0</v>
+      </c>
+      <c r="E139" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F139" s="6">
+        <v>44</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H139" s="8">
+        <v>0.37152777777777773</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="6">
+        <v>15</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D140" s="6">
+        <v>0</v>
+      </c>
+      <c r="E140" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F140" s="6">
+        <v>30</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H140" s="8">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" s="6">
+        <v>15</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D141" s="6">
+        <v>0</v>
+      </c>
+      <c r="E141" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F141" s="6">
+        <v>10</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H141" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="6">
+        <v>15</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D142" s="6">
+        <v>0</v>
+      </c>
+      <c r="E142" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F142" s="6">
+        <v>1</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H142" s="8">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="6">
+        <v>15</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" s="6">
+        <v>0</v>
+      </c>
+      <c r="E143" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F143" s="6">
+        <v>12</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H143" s="8">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="6">
+        <v>16</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" s="6">
+        <v>0</v>
+      </c>
+      <c r="E144" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F144" s="6">
+        <v>13</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H144" s="8">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" s="6">
+        <v>16</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145" s="6">
+        <v>0</v>
+      </c>
+      <c r="E145" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F145" s="6">
+        <v>14</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H145" s="8">
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="6">
+        <v>16</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D146" s="6">
+        <v>0</v>
+      </c>
+      <c r="E146" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F146" s="6">
+        <v>35</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H146" s="8">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" s="6">
+        <v>16</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0</v>
+      </c>
+      <c r="E147" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F147" s="6">
+        <v>28</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H147" s="8">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" s="6">
+        <v>16</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="6">
+        <v>0</v>
+      </c>
+      <c r="E148" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F148" s="6">
+        <v>19</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H148" s="8">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" s="6">
+        <v>16</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0</v>
+      </c>
+      <c r="E149" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F149" s="6">
+        <v>18</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H149" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" s="6">
+        <v>16</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0</v>
+      </c>
+      <c r="E150" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F150" s="6">
+        <v>32</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H150" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" s="6">
+        <v>16</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0</v>
+      </c>
+      <c r="E151" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F151" s="6">
+        <v>25</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H151" s="8">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" s="6">
+        <v>16</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D152" s="6">
+        <v>0</v>
+      </c>
+      <c r="E152" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F152" s="6">
+        <v>41</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H152" s="8">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" s="6">
+        <v>16</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153" s="6">
+        <v>0</v>
+      </c>
+      <c r="E153" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F153" s="6">
+        <v>43</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H153" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" s="6">
+        <v>17</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D154" s="6">
+        <v>1</v>
+      </c>
+      <c r="E154" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F154" s="6">
+        <v>43</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H154" s="8">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" s="6">
+        <v>17</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D155" s="6">
+        <v>1</v>
+      </c>
+      <c r="E155" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F155" s="6">
+        <v>41</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H155" s="8">
+        <v>0.56597222222222221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="6">
+        <v>17</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D156" s="6">
+        <v>1</v>
+      </c>
+      <c r="E156" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F156" s="6">
+        <v>25</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H156" s="8">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" s="6">
+        <v>17</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D157" s="6">
+        <v>1</v>
+      </c>
+      <c r="E157" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F157" s="6">
+        <v>32</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H157" s="8">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="6">
+        <v>17</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D158" s="6">
+        <v>1</v>
+      </c>
+      <c r="E158" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F158" s="6">
+        <v>18</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H158" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="6">
+        <v>17</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D159" s="6">
+        <v>1</v>
+      </c>
+      <c r="E159" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F159" s="6">
+        <v>19</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H159" s="8">
+        <v>0.61805555555555558</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" s="6">
+        <v>17</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1</v>
+      </c>
+      <c r="E160" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F160" s="6">
+        <v>28</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H160" s="8">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" s="6">
+        <v>17</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" s="6">
+        <v>1</v>
+      </c>
+      <c r="E161" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F161" s="6">
+        <v>35</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H161" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" s="6">
+        <v>17</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1</v>
+      </c>
+      <c r="E162" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F162" s="6">
+        <v>14</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H162" s="8">
+        <v>0.67013888888888884</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" s="6">
+        <v>17</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D163" s="6">
+        <v>1</v>
+      </c>
+      <c r="E163" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F163" s="6">
+        <v>13</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H163" s="8">
+        <v>0.68402777777777779</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164" s="6">
+        <v>18</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D164" s="6">
+        <v>1</v>
+      </c>
+      <c r="E164" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F164" s="6">
+        <v>12</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H164" s="8">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" s="6">
+        <v>18</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1</v>
+      </c>
+      <c r="E165" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F165" s="6">
+        <v>1</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H165" s="8">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" s="6">
+        <v>18</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D166" s="6">
+        <v>1</v>
+      </c>
+      <c r="E166" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F166" s="6">
+        <v>10</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H166" s="8">
+        <v>0.55208333333333337</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" s="6">
+        <v>18</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D167" s="6">
+        <v>1</v>
+      </c>
+      <c r="E167" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F167" s="6">
+        <v>30</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H167" s="8">
+        <v>0.57291666666666663</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" s="6">
+        <v>18</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D168" s="6">
+        <v>1</v>
+      </c>
+      <c r="E168" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F168" s="6">
+        <v>44</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H168" s="8">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" s="6">
+        <v>18</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D169" s="6">
+        <v>1</v>
+      </c>
+      <c r="E169" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F169" s="6">
+        <v>26</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H169" s="8">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" s="6">
+        <v>18</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D170" s="6">
+        <v>1</v>
+      </c>
+      <c r="E170" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F170" s="6">
+        <v>31</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H170" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" s="6">
+        <v>18</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D171" s="6">
+        <v>1</v>
+      </c>
+      <c r="E171" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F171" s="6">
+        <v>15</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H171" s="8">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" s="6">
+        <v>18</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D172" s="6">
+        <v>1</v>
+      </c>
+      <c r="E172" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F172" s="6">
+        <v>13</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H172" s="8">
+        <v>0.68402777777777779</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" s="6">
+        <v>18</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D173" s="6">
+        <v>1</v>
+      </c>
+      <c r="E173" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F173" s="6">
+        <v>14</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H173" s="8">
+        <v>0.69444444444444453</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" s="6">
+        <v>19</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D174" s="6">
+        <v>1</v>
+      </c>
+      <c r="E174" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F174" s="6">
+        <v>13</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H174" s="8">
+        <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175" s="6">
+        <v>19</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D175" s="6">
+        <v>1</v>
+      </c>
+      <c r="E175" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F175" s="6">
+        <v>29</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H175" s="8">
+        <v>0.17708333333333334</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" s="6">
+        <v>19</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D176" s="6">
+        <v>1</v>
+      </c>
+      <c r="E176" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F176" s="6">
+        <v>21</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H176" s="8">
+        <v>0.20486111111111113</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" s="6">
+        <v>19</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D177" s="6">
+        <v>1</v>
+      </c>
+      <c r="E177" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F177" s="6">
+        <v>23</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H177" s="8">
+        <v>0.23611111111111113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="6">
+        <v>19</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D178" s="6">
+        <v>1</v>
+      </c>
+      <c r="E178" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F178" s="6">
+        <v>17</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H178" s="8">
+        <v>0.25694444444444448</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="6">
+        <v>19</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1</v>
+      </c>
+      <c r="E179" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F179" s="6">
+        <v>42</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H179" s="8">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="6">
+        <v>20</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" s="6">
+        <v>0</v>
+      </c>
+      <c r="E180" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F180" s="6">
+        <v>42</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H180" s="8">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="6">
+        <v>20</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D181" s="6">
+        <v>0</v>
+      </c>
+      <c r="E181" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F181" s="6">
+        <v>17</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H181" s="8">
+        <v>0.23263888888888887</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="6">
+        <v>20</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D182" s="6">
+        <v>0</v>
+      </c>
+      <c r="E182" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F182" s="6">
+        <v>23</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H182" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="6">
+        <v>20</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D183" s="6">
+        <v>0</v>
+      </c>
+      <c r="E183" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F183" s="6">
+        <v>21</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H183" s="8">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" s="6">
+        <v>20</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D184" s="6">
+        <v>0</v>
+      </c>
+      <c r="E184" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F184" s="6">
+        <v>29</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H184" s="8">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="6">
+        <v>20</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D185" s="6">
+        <v>0</v>
+      </c>
+      <c r="E185" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F185" s="6">
+        <v>13</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H185" s="8">
+        <v>0.34375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/ohio/input_file.xlsx
+++ b/data/ohio/input_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\herşey\R_projects\GTFS_for_Athens\data\ohio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C5DD7-3A79-489E-A8E7-AD3C79760B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76D05B2-D0C8-49C9-9D6A-602A9D7E5C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" activeTab="2" xr2:uid="{C1864C25-24E0-4499-B200-D409B322D391}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="156">
   <si>
     <t>Parkersburg Marathon Station - 573 Point Dr</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <t>arrival_time</t>
+  </si>
+  <si>
+    <t>374D</t>
+  </si>
+  <si>
+    <t>379D</t>
   </si>
 </sst>
 </file>
@@ -5115,8 +5121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEEC64B-CEF0-48C8-8C52-F5FCFB00C56E}">
   <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="H185" sqref="H185"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5132,7 +5138,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -5159,7 +5165,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>48</v>
@@ -5186,7 +5192,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>48</v>
@@ -5198,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E66" si="0">IF(A3&lt;&gt;A2,1,E2+1)</f>
+        <f>IF(A3&lt;&gt;A2,1,E2+1)</f>
         <v>2</v>
       </c>
       <c r="F3" s="6">
@@ -5213,7 +5219,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>48</v>
@@ -5225,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A4&lt;&gt;A3,1,E3+1)</f>
         <v>3</v>
       </c>
       <c r="F4" s="6">
@@ -5240,7 +5246,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>48</v>
@@ -5252,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A5&lt;&gt;A4,1,E4+1)</f>
         <v>4</v>
       </c>
       <c r="F5" s="6">
@@ -5267,7 +5273,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>48</v>
@@ -5279,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A6&lt;&gt;A5,1,E5+1)</f>
         <v>5</v>
       </c>
       <c r="F6" s="6">
@@ -5294,7 +5300,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>48</v>
@@ -5306,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A7&lt;&gt;A6,1,E6+1)</f>
         <v>6</v>
       </c>
       <c r="F7" s="6">
@@ -5321,7 +5327,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>48</v>
@@ -5333,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A8&lt;&gt;A7,1,E7+1)</f>
         <v>7</v>
       </c>
       <c r="F8" s="6">
@@ -5348,7 +5354,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>48</v>
@@ -5360,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A9&lt;&gt;A8,1,E8+1)</f>
         <v>1</v>
       </c>
       <c r="F9" s="6">
@@ -5375,7 +5381,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>48</v>
@@ -5387,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A10&lt;&gt;A9,1,E9+1)</f>
         <v>2</v>
       </c>
       <c r="F10" s="6">
@@ -5402,7 +5408,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>48</v>
@@ -5414,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A11&lt;&gt;A10,1,E10+1)</f>
         <v>3</v>
       </c>
       <c r="F11" s="6">
@@ -5429,7 +5435,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>48</v>
@@ -5441,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A12&lt;&gt;A11,1,E11+1)</f>
         <v>4</v>
       </c>
       <c r="F12" s="6">
@@ -5456,7 +5462,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>48</v>
@@ -5468,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A13&lt;&gt;A12,1,E12+1)</f>
         <v>5</v>
       </c>
       <c r="F13" s="6">
@@ -5483,7 +5489,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>48</v>
@@ -5495,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A14&lt;&gt;A13,1,E13+1)</f>
         <v>6</v>
       </c>
       <c r="F14" s="6">
@@ -5510,7 +5516,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>48</v>
@@ -5522,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A15&lt;&gt;A14,1,E14+1)</f>
         <v>7</v>
       </c>
       <c r="F15" s="6">
@@ -5537,7 +5543,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>48</v>
@@ -5549,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A16&lt;&gt;A15,1,E15+1)</f>
         <v>8</v>
       </c>
       <c r="F16" s="6">
@@ -5564,7 +5570,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>48</v>
@@ -5576,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A17&lt;&gt;A16,1,E16+1)</f>
         <v>9</v>
       </c>
       <c r="F17" s="6">
@@ -5591,7 +5597,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>48</v>
@@ -5603,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A18&lt;&gt;A17,1,E17+1)</f>
         <v>10</v>
       </c>
       <c r="F18" s="6">
@@ -5618,7 +5624,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <v>3</v>
+        <v>378</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>48</v>
@@ -5630,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A19&lt;&gt;A18,1,E18+1)</f>
         <v>1</v>
       </c>
       <c r="F19" s="6">
@@ -5645,7 +5651,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <v>3</v>
+        <v>378</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>48</v>
@@ -5657,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A20&lt;&gt;A19,1,E19+1)</f>
         <v>2</v>
       </c>
       <c r="F20" s="6">
@@ -5672,7 +5678,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <v>3</v>
+        <v>378</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>48</v>
@@ -5684,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A21&lt;&gt;A20,1,E20+1)</f>
         <v>3</v>
       </c>
       <c r="F21" s="6">
@@ -5699,7 +5705,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <v>3</v>
+        <v>378</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>48</v>
@@ -5711,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A22&lt;&gt;A21,1,E21+1)</f>
         <v>4</v>
       </c>
       <c r="F22" s="6">
@@ -5726,7 +5732,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
-        <v>3</v>
+        <v>378</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>48</v>
@@ -5738,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A23&lt;&gt;A22,1,E22+1)</f>
         <v>5</v>
       </c>
       <c r="F23" s="6">
@@ -5753,7 +5759,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <v>3</v>
+        <v>378</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>48</v>
@@ -5765,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A24&lt;&gt;A23,1,E23+1)</f>
         <v>6</v>
       </c>
       <c r="F24" s="6">
@@ -5780,7 +5786,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <v>3</v>
+        <v>378</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>48</v>
@@ -5792,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A25&lt;&gt;A24,1,E24+1)</f>
         <v>7</v>
       </c>
       <c r="F25" s="6">
@@ -5807,7 +5813,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <v>3</v>
+        <v>378</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>48</v>
@@ -5819,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A26&lt;&gt;A25,1,E25+1)</f>
         <v>8</v>
       </c>
       <c r="F26" s="6">
@@ -5834,7 +5840,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>48</v>
@@ -5846,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A27&lt;&gt;A26,1,E26+1)</f>
         <v>1</v>
       </c>
       <c r="F27" s="6">
@@ -5861,7 +5867,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>48</v>
@@ -5873,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A28&lt;&gt;A27,1,E27+1)</f>
         <v>2</v>
       </c>
       <c r="F28" s="6">
@@ -5888,7 +5894,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>48</v>
@@ -5900,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A29&lt;&gt;A28,1,E28+1)</f>
         <v>3</v>
       </c>
       <c r="F29" s="6">
@@ -5915,7 +5921,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>48</v>
@@ -5927,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A30&lt;&gt;A29,1,E29+1)</f>
         <v>4</v>
       </c>
       <c r="F30" s="6">
@@ -5942,7 +5948,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>48</v>
@@ -5954,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A31&lt;&gt;A30,1,E30+1)</f>
         <v>5</v>
       </c>
       <c r="F31" s="6">
@@ -5969,7 +5975,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>48</v>
@@ -5981,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A32&lt;&gt;A31,1,E31+1)</f>
         <v>6</v>
       </c>
       <c r="F32" s="6">
@@ -5996,7 +6002,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>48</v>
@@ -6008,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A33&lt;&gt;A32,1,E32+1)</f>
         <v>7</v>
       </c>
       <c r="F33" s="6">
@@ -6023,7 +6029,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>48</v>
@@ -6035,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A34&lt;&gt;A33,1,E33+1)</f>
         <v>8</v>
       </c>
       <c r="F34" s="6">
@@ -6050,7 +6056,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>48</v>
@@ -6062,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A35&lt;&gt;A34,1,E34+1)</f>
         <v>9</v>
       </c>
       <c r="F35" s="6">
@@ -6077,7 +6083,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>48</v>
@@ -6089,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A36&lt;&gt;A35,1,E35+1)</f>
         <v>10</v>
       </c>
       <c r="F36" s="6">
@@ -6104,7 +6110,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>48</v>
@@ -6116,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A37&lt;&gt;A36,1,E36+1)</f>
         <v>1</v>
       </c>
       <c r="F37" s="6">
@@ -6131,7 +6137,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>48</v>
@@ -6143,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A38&lt;&gt;A37,1,E37+1)</f>
         <v>2</v>
       </c>
       <c r="F38" s="6">
@@ -6158,7 +6164,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>48</v>
@@ -6170,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A39&lt;&gt;A38,1,E38+1)</f>
         <v>3</v>
       </c>
       <c r="F39" s="6">
@@ -6185,7 +6191,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>48</v>
@@ -6197,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A40&lt;&gt;A39,1,E39+1)</f>
         <v>4</v>
       </c>
       <c r="F40" s="6">
@@ -6212,7 +6218,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>48</v>
@@ -6224,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A41&lt;&gt;A40,1,E40+1)</f>
         <v>5</v>
       </c>
       <c r="F41" s="6">
@@ -6239,7 +6245,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>48</v>
@@ -6251,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A42&lt;&gt;A41,1,E41+1)</f>
         <v>6</v>
       </c>
       <c r="F42" s="6">
@@ -6266,7 +6272,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
-        <v>5</v>
+        <v>379</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>48</v>
@@ -6278,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A43&lt;&gt;A42,1,E42+1)</f>
         <v>7</v>
       </c>
       <c r="F43" s="6">
@@ -6293,7 +6299,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>48</v>
@@ -6305,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A44&lt;&gt;A43,1,E43+1)</f>
         <v>1</v>
       </c>
       <c r="F44" s="6">
@@ -6320,7 +6326,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>48</v>
@@ -6332,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A45&lt;&gt;A44,1,E44+1)</f>
         <v>2</v>
       </c>
       <c r="F45" s="6">
@@ -6347,7 +6353,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>48</v>
@@ -6359,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A46&lt;&gt;A45,1,E45+1)</f>
         <v>3</v>
       </c>
       <c r="F46" s="6">
@@ -6374,7 +6380,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>48</v>
@@ -6386,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A47&lt;&gt;A46,1,E46+1)</f>
         <v>4</v>
       </c>
       <c r="F47" s="6">
@@ -6401,7 +6407,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>48</v>
@@ -6413,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A48&lt;&gt;A47,1,E47+1)</f>
         <v>5</v>
       </c>
       <c r="F48" s="6">
@@ -6428,7 +6434,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>48</v>
@@ -6440,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A49&lt;&gt;A48,1,E48+1)</f>
         <v>6</v>
       </c>
       <c r="F49" s="6">
@@ -6455,7 +6461,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>48</v>
@@ -6467,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A50&lt;&gt;A49,1,E49+1)</f>
         <v>7</v>
       </c>
       <c r="F50" s="6">
@@ -6482,7 +6488,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>48</v>
@@ -6494,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A51&lt;&gt;A50,1,E50+1)</f>
         <v>8</v>
       </c>
       <c r="F51" s="6">
@@ -6509,7 +6515,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>51</v>
@@ -6521,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A52&lt;&gt;A51,1,E51+1)</f>
         <v>1</v>
       </c>
       <c r="F52" s="6">
@@ -6536,7 +6542,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>51</v>
@@ -6548,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A53&lt;&gt;A52,1,E52+1)</f>
         <v>2</v>
       </c>
       <c r="F53" s="6">
@@ -6563,7 +6569,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>51</v>
@@ -6575,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A54&lt;&gt;A53,1,E53+1)</f>
         <v>3</v>
       </c>
       <c r="F54" s="6">
@@ -6590,7 +6596,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>51</v>
@@ -6602,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A55&lt;&gt;A54,1,E54+1)</f>
         <v>4</v>
       </c>
       <c r="F55" s="6">
@@ -6617,7 +6623,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>51</v>
@@ -6629,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A56&lt;&gt;A55,1,E55+1)</f>
         <v>5</v>
       </c>
       <c r="F56" s="6">
@@ -6644,7 +6650,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>51</v>
@@ -6656,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A57&lt;&gt;A56,1,E56+1)</f>
         <v>6</v>
       </c>
       <c r="F57" s="6">
@@ -6671,7 +6677,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>51</v>
@@ -6683,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A58&lt;&gt;A57,1,E57+1)</f>
         <v>7</v>
       </c>
       <c r="F58" s="6">
@@ -6698,7 +6704,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>51</v>
@@ -6710,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A59&lt;&gt;A58,1,E58+1)</f>
         <v>8</v>
       </c>
       <c r="F59" s="6">
@@ -6725,7 +6731,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>51</v>
@@ -6737,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A60&lt;&gt;A59,1,E59+1)</f>
         <v>9</v>
       </c>
       <c r="F60" s="6">
@@ -6752,7 +6758,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>51</v>
@@ -6764,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A61&lt;&gt;A60,1,E60+1)</f>
         <v>10</v>
       </c>
       <c r="F61" s="6">
@@ -6779,7 +6785,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>51</v>
@@ -6791,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A62&lt;&gt;A61,1,E61+1)</f>
         <v>1</v>
       </c>
       <c r="F62" s="6">
@@ -6806,7 +6812,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>51</v>
@@ -6818,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A63&lt;&gt;A62,1,E62+1)</f>
         <v>2</v>
       </c>
       <c r="F63" s="6">
@@ -6833,7 +6839,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>51</v>
@@ -6845,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A64&lt;&gt;A63,1,E63+1)</f>
         <v>3</v>
       </c>
       <c r="F64" s="6">
@@ -6860,7 +6866,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>51</v>
@@ -6872,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A65&lt;&gt;A64,1,E64+1)</f>
         <v>4</v>
       </c>
       <c r="F65" s="6">
@@ -6887,7 +6893,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>51</v>
@@ -6899,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="6">
-        <f t="shared" si="0"/>
+        <f>IF(A66&lt;&gt;A65,1,E65+1)</f>
         <v>5</v>
       </c>
       <c r="F66" s="6">
@@ -6914,7 +6920,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>51</v>
@@ -6926,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" ref="E67:E130" si="1">IF(A67&lt;&gt;A66,1,E66+1)</f>
+        <f>IF(A67&lt;&gt;A66,1,E66+1)</f>
         <v>6</v>
       </c>
       <c r="F67" s="6">
@@ -6941,7 +6947,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>51</v>
@@ -6953,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A68&lt;&gt;A67,1,E67+1)</f>
         <v>7</v>
       </c>
       <c r="F68" s="6">
@@ -6968,7 +6974,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>51</v>
@@ -6980,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A69&lt;&gt;A68,1,E68+1)</f>
         <v>8</v>
       </c>
       <c r="F69" s="6">
@@ -6995,7 +7001,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>51</v>
@@ -7007,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A70&lt;&gt;A69,1,E69+1)</f>
         <v>9</v>
       </c>
       <c r="F70" s="6">
@@ -7022,7 +7028,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>51</v>
@@ -7034,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A71&lt;&gt;A70,1,E70+1)</f>
         <v>10</v>
       </c>
       <c r="F71" s="6">
@@ -7049,7 +7055,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>51</v>
@@ -7061,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A72&lt;&gt;A71,1,E71+1)</f>
         <v>1</v>
       </c>
       <c r="F72" s="6">
@@ -7076,7 +7082,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>51</v>
@@ -7088,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A73&lt;&gt;A72,1,E72+1)</f>
         <v>2</v>
       </c>
       <c r="F73" s="6">
@@ -7103,7 +7109,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>51</v>
@@ -7115,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A74&lt;&gt;A73,1,E73+1)</f>
         <v>3</v>
       </c>
       <c r="F74" s="6">
@@ -7130,7 +7136,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>51</v>
@@ -7142,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A75&lt;&gt;A74,1,E74+1)</f>
         <v>4</v>
       </c>
       <c r="F75" s="6">
@@ -7157,7 +7163,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>51</v>
@@ -7169,7 +7175,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A76&lt;&gt;A75,1,E75+1)</f>
         <v>5</v>
       </c>
       <c r="F76" s="6">
@@ -7184,7 +7190,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>51</v>
@@ -7196,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A77&lt;&gt;A76,1,E76+1)</f>
         <v>6</v>
       </c>
       <c r="F77" s="6">
@@ -7211,7 +7217,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>51</v>
@@ -7223,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A78&lt;&gt;A77,1,E77+1)</f>
         <v>7</v>
       </c>
       <c r="F78" s="6">
@@ -7238,7 +7244,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>51</v>
@@ -7250,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A79&lt;&gt;A78,1,E78+1)</f>
         <v>8</v>
       </c>
       <c r="F79" s="6">
@@ -7265,7 +7271,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>51</v>
@@ -7277,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A80&lt;&gt;A79,1,E79+1)</f>
         <v>9</v>
       </c>
       <c r="F80" s="6">
@@ -7292,7 +7298,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>51</v>
@@ -7304,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A81&lt;&gt;A80,1,E80+1)</f>
         <v>10</v>
       </c>
       <c r="F81" s="6">
@@ -7319,7 +7325,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>51</v>
@@ -7331,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A82&lt;&gt;A81,1,E81+1)</f>
         <v>1</v>
       </c>
       <c r="F82" s="6">
@@ -7346,7 +7352,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>51</v>
@@ -7358,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A83&lt;&gt;A82,1,E82+1)</f>
         <v>2</v>
       </c>
       <c r="F83" s="6">
@@ -7373,7 +7379,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>51</v>
@@ -7385,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A84&lt;&gt;A83,1,E83+1)</f>
         <v>3</v>
       </c>
       <c r="F84" s="6">
@@ -7400,7 +7406,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>51</v>
@@ -7412,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A85&lt;&gt;A84,1,E84+1)</f>
         <v>4</v>
       </c>
       <c r="F85" s="6">
@@ -7427,7 +7433,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>51</v>
@@ -7439,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A86&lt;&gt;A85,1,E85+1)</f>
         <v>5</v>
       </c>
       <c r="F86" s="6">
@@ -7454,7 +7460,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>51</v>
@@ -7466,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A87&lt;&gt;A86,1,E86+1)</f>
         <v>6</v>
       </c>
       <c r="F87" s="6">
@@ -7481,7 +7487,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>51</v>
@@ -7493,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A88&lt;&gt;A87,1,E87+1)</f>
         <v>7</v>
       </c>
       <c r="F88" s="6">
@@ -7508,7 +7514,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>51</v>
@@ -7520,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A89&lt;&gt;A88,1,E88+1)</f>
         <v>8</v>
       </c>
       <c r="F89" s="6">
@@ -7535,7 +7541,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>51</v>
@@ -7547,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A90&lt;&gt;A89,1,E89+1)</f>
         <v>9</v>
       </c>
       <c r="F90" s="6">
@@ -7562,7 +7568,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>51</v>
@@ -7574,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A91&lt;&gt;A90,1,E90+1)</f>
         <v>10</v>
       </c>
       <c r="F91" s="6">
@@ -7589,7 +7595,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>52</v>
@@ -7601,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A92&lt;&gt;A91,1,E91+1)</f>
         <v>1</v>
       </c>
       <c r="F92" s="6">
@@ -7616,7 +7622,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>52</v>
@@ -7628,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A93&lt;&gt;A92,1,E92+1)</f>
         <v>2</v>
       </c>
       <c r="F93" s="6">
@@ -7643,7 +7649,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>52</v>
@@ -7655,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A94&lt;&gt;A93,1,E93+1)</f>
         <v>3</v>
       </c>
       <c r="F94" s="6">
@@ -7670,7 +7676,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>52</v>
@@ -7682,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A95&lt;&gt;A94,1,E94+1)</f>
         <v>4</v>
       </c>
       <c r="F95" s="6">
@@ -7697,7 +7703,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>52</v>
@@ -7709,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A96&lt;&gt;A95,1,E95+1)</f>
         <v>5</v>
       </c>
       <c r="F96" s="6">
@@ -7724,7 +7730,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>52</v>
@@ -7736,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A97&lt;&gt;A96,1,E96+1)</f>
         <v>6</v>
       </c>
       <c r="F97" s="6">
@@ -7751,7 +7757,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>52</v>
@@ -7763,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A98&lt;&gt;A97,1,E97+1)</f>
         <v>7</v>
       </c>
       <c r="F98" s="6">
@@ -7778,7 +7784,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>52</v>
@@ -7790,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A99&lt;&gt;A98,1,E98+1)</f>
         <v>8</v>
       </c>
       <c r="F99" s="6">
@@ -7805,7 +7811,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>52</v>
@@ -7817,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A100&lt;&gt;A99,1,E99+1)</f>
         <v>9</v>
       </c>
       <c r="F100" s="6">
@@ -7832,7 +7838,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>52</v>
@@ -7844,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A101&lt;&gt;A100,1,E100+1)</f>
         <v>10</v>
       </c>
       <c r="F101" s="6">
@@ -7859,7 +7865,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>52</v>
@@ -7871,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A102&lt;&gt;A101,1,E101+1)</f>
         <v>11</v>
       </c>
       <c r="F102" s="6">
@@ -7886,7 +7892,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>52</v>
@@ -7898,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A103&lt;&gt;A102,1,E102+1)</f>
         <v>1</v>
       </c>
       <c r="F103" s="6">
@@ -7913,7 +7919,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>52</v>
@@ -7925,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A104&lt;&gt;A103,1,E103+1)</f>
         <v>2</v>
       </c>
       <c r="F104" s="6">
@@ -7940,7 +7946,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>52</v>
@@ -7952,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A105&lt;&gt;A104,1,E104+1)</f>
         <v>3</v>
       </c>
       <c r="F105" s="6">
@@ -7967,7 +7973,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>52</v>
@@ -7979,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A106&lt;&gt;A105,1,E105+1)</f>
         <v>4</v>
       </c>
       <c r="F106" s="6">
@@ -7994,7 +8000,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>52</v>
@@ -8006,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A107&lt;&gt;A106,1,E106+1)</f>
         <v>5</v>
       </c>
       <c r="F107" s="6">
@@ -8021,7 +8027,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>52</v>
@@ -8033,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A108&lt;&gt;A107,1,E107+1)</f>
         <v>6</v>
       </c>
       <c r="F108" s="6">
@@ -8048,7 +8054,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>52</v>
@@ -8060,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A109&lt;&gt;A108,1,E108+1)</f>
         <v>7</v>
       </c>
       <c r="F109" s="6">
@@ -8075,7 +8081,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>52</v>
@@ -8087,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A110&lt;&gt;A109,1,E109+1)</f>
         <v>8</v>
       </c>
       <c r="F110" s="6">
@@ -8102,7 +8108,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>52</v>
@@ -8114,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A111&lt;&gt;A110,1,E110+1)</f>
         <v>9</v>
       </c>
       <c r="F111" s="6">
@@ -8129,7 +8135,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
-        <v>12</v>
+        <v>385</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>52</v>
@@ -8141,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A112&lt;&gt;A111,1,E111+1)</f>
         <v>10</v>
       </c>
       <c r="F112" s="6">
@@ -8156,7 +8162,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>52</v>
@@ -8168,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A113&lt;&gt;A112,1,E112+1)</f>
         <v>1</v>
       </c>
       <c r="F113" s="6">
@@ -8183,7 +8189,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>52</v>
@@ -8195,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A114&lt;&gt;A113,1,E113+1)</f>
         <v>2</v>
       </c>
       <c r="F114" s="6">
@@ -8210,7 +8216,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>52</v>
@@ -8222,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A115&lt;&gt;A114,1,E114+1)</f>
         <v>3</v>
       </c>
       <c r="F115" s="6">
@@ -8237,7 +8243,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>52</v>
@@ -8249,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A116&lt;&gt;A115,1,E115+1)</f>
         <v>4</v>
       </c>
       <c r="F116" s="6">
@@ -8264,7 +8270,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>52</v>
@@ -8276,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A117&lt;&gt;A116,1,E116+1)</f>
         <v>5</v>
       </c>
       <c r="F117" s="6">
@@ -8291,7 +8297,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>52</v>
@@ -8303,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A118&lt;&gt;A117,1,E117+1)</f>
         <v>6</v>
       </c>
       <c r="F118" s="6">
@@ -8318,7 +8324,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>52</v>
@@ -8330,7 +8336,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A119&lt;&gt;A118,1,E118+1)</f>
         <v>7</v>
       </c>
       <c r="F119" s="6">
@@ -8345,7 +8351,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>52</v>
@@ -8357,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A120&lt;&gt;A119,1,E119+1)</f>
         <v>8</v>
       </c>
       <c r="F120" s="6">
@@ -8372,7 +8378,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>52</v>
@@ -8384,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A121&lt;&gt;A120,1,E120+1)</f>
         <v>9</v>
       </c>
       <c r="F121" s="6">
@@ -8399,7 +8405,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>52</v>
@@ -8411,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A122&lt;&gt;A121,1,E121+1)</f>
         <v>1</v>
       </c>
       <c r="F122" s="6">
@@ -8426,7 +8432,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>52</v>
@@ -8438,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A123&lt;&gt;A122,1,E122+1)</f>
         <v>2</v>
       </c>
       <c r="F123" s="6">
@@ -8453,7 +8459,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>52</v>
@@ -8465,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A124&lt;&gt;A123,1,E123+1)</f>
         <v>3</v>
       </c>
       <c r="F124" s="6">
@@ -8480,7 +8486,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>52</v>
@@ -8492,7 +8498,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A125&lt;&gt;A124,1,E124+1)</f>
         <v>4</v>
       </c>
       <c r="F125" s="6">
@@ -8507,7 +8513,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>52</v>
@@ -8519,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A126&lt;&gt;A125,1,E125+1)</f>
         <v>5</v>
       </c>
       <c r="F126" s="6">
@@ -8534,7 +8540,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>52</v>
@@ -8546,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A127&lt;&gt;A126,1,E126+1)</f>
         <v>6</v>
       </c>
       <c r="F127" s="6">
@@ -8561,7 +8567,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>52</v>
@@ -8573,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A128&lt;&gt;A127,1,E127+1)</f>
         <v>7</v>
       </c>
       <c r="F128" s="6">
@@ -8588,7 +8594,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>52</v>
@@ -8600,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A129&lt;&gt;A128,1,E128+1)</f>
         <v>8</v>
       </c>
       <c r="F129" s="6">
@@ -8615,7 +8621,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>52</v>
@@ -8627,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(A130&lt;&gt;A129,1,E129+1)</f>
         <v>9</v>
       </c>
       <c r="F130" s="6">
@@ -8642,7 +8648,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>52</v>
@@ -8654,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="6">
-        <f t="shared" ref="E131:E185" si="2">IF(A131&lt;&gt;A130,1,E130+1)</f>
+        <f>IF(A131&lt;&gt;A130,1,E130+1)</f>
         <v>10</v>
       </c>
       <c r="F131" s="6">
@@ -8669,7 +8675,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>52</v>
@@ -8681,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A132&lt;&gt;A131,1,E131+1)</f>
         <v>11</v>
       </c>
       <c r="F132" s="6">
@@ -8696,7 +8702,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>52</v>
@@ -8708,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A133&lt;&gt;A132,1,E132+1)</f>
         <v>12</v>
       </c>
       <c r="F133" s="6">
@@ -8722,8 +8728,8 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="6">
-        <v>15</v>
+      <c r="A134" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>53</v>
@@ -8735,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A134&lt;&gt;A133,1,E133+1)</f>
         <v>1</v>
       </c>
       <c r="F134" s="6">
@@ -8749,8 +8755,8 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="6">
-        <v>15</v>
+      <c r="A135" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>53</v>
@@ -8762,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A135&lt;&gt;A134,1,E134+1)</f>
         <v>2</v>
       </c>
       <c r="F135" s="6">
@@ -8776,8 +8782,8 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="6">
-        <v>15</v>
+      <c r="A136" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>53</v>
@@ -8789,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A136&lt;&gt;A135,1,E135+1)</f>
         <v>3</v>
       </c>
       <c r="F136" s="6">
@@ -8803,8 +8809,8 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="6">
-        <v>15</v>
+      <c r="A137" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>53</v>
@@ -8816,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A137&lt;&gt;A136,1,E136+1)</f>
         <v>4</v>
       </c>
       <c r="F137" s="6">
@@ -8830,8 +8836,8 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="6">
-        <v>15</v>
+      <c r="A138" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>53</v>
@@ -8843,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A138&lt;&gt;A137,1,E137+1)</f>
         <v>5</v>
       </c>
       <c r="F138" s="6">
@@ -8857,8 +8863,8 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="6">
-        <v>15</v>
+      <c r="A139" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>53</v>
@@ -8870,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A139&lt;&gt;A138,1,E138+1)</f>
         <v>6</v>
       </c>
       <c r="F139" s="6">
@@ -8884,8 +8890,8 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="6">
-        <v>15</v>
+      <c r="A140" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>53</v>
@@ -8897,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="E140" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A140&lt;&gt;A139,1,E139+1)</f>
         <v>7</v>
       </c>
       <c r="F140" s="6">
@@ -8911,8 +8917,8 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="6">
-        <v>15</v>
+      <c r="A141" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>53</v>
@@ -8924,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A141&lt;&gt;A140,1,E140+1)</f>
         <v>8</v>
       </c>
       <c r="F141" s="6">
@@ -8938,8 +8944,8 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="6">
-        <v>15</v>
+      <c r="A142" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>53</v>
@@ -8951,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="E142" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A142&lt;&gt;A141,1,E141+1)</f>
         <v>9</v>
       </c>
       <c r="F142" s="6">
@@ -8965,8 +8971,8 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="6">
-        <v>15</v>
+      <c r="A143" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>53</v>
@@ -8978,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A143&lt;&gt;A142,1,E142+1)</f>
         <v>10</v>
       </c>
       <c r="F143" s="6">
@@ -8993,7 +8999,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>53</v>
@@ -9005,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A144&lt;&gt;A143,1,E143+1)</f>
         <v>1</v>
       </c>
       <c r="F144" s="6">
@@ -9020,7 +9026,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>53</v>
@@ -9032,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A145&lt;&gt;A144,1,E144+1)</f>
         <v>2</v>
       </c>
       <c r="F145" s="6">
@@ -9047,7 +9053,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>53</v>
@@ -9059,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A146&lt;&gt;A145,1,E145+1)</f>
         <v>3</v>
       </c>
       <c r="F146" s="6">
@@ -9074,7 +9080,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>53</v>
@@ -9086,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A147&lt;&gt;A146,1,E146+1)</f>
         <v>4</v>
       </c>
       <c r="F147" s="6">
@@ -9101,7 +9107,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>53</v>
@@ -9113,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A148&lt;&gt;A147,1,E147+1)</f>
         <v>5</v>
       </c>
       <c r="F148" s="6">
@@ -9128,7 +9134,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>53</v>
@@ -9140,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A149&lt;&gt;A148,1,E148+1)</f>
         <v>6</v>
       </c>
       <c r="F149" s="6">
@@ -9155,7 +9161,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>53</v>
@@ -9167,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A150&lt;&gt;A149,1,E149+1)</f>
         <v>7</v>
       </c>
       <c r="F150" s="6">
@@ -9182,7 +9188,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>53</v>
@@ -9194,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A151&lt;&gt;A150,1,E150+1)</f>
         <v>8</v>
       </c>
       <c r="F151" s="6">
@@ -9209,7 +9215,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>53</v>
@@ -9221,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A152&lt;&gt;A151,1,E151+1)</f>
         <v>9</v>
       </c>
       <c r="F152" s="6">
@@ -9236,7 +9242,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>53</v>
@@ -9248,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A153&lt;&gt;A152,1,E152+1)</f>
         <v>10</v>
       </c>
       <c r="F153" s="6">
@@ -9263,7 +9269,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>53</v>
@@ -9275,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A154&lt;&gt;A153,1,E153+1)</f>
         <v>1</v>
       </c>
       <c r="F154" s="6">
@@ -9290,7 +9296,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>53</v>
@@ -9302,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A155&lt;&gt;A154,1,E154+1)</f>
         <v>2</v>
       </c>
       <c r="F155" s="6">
@@ -9317,7 +9323,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>53</v>
@@ -9329,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A156&lt;&gt;A155,1,E155+1)</f>
         <v>3</v>
       </c>
       <c r="F156" s="6">
@@ -9344,7 +9350,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>53</v>
@@ -9356,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A157&lt;&gt;A156,1,E156+1)</f>
         <v>4</v>
       </c>
       <c r="F157" s="6">
@@ -9371,7 +9377,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>53</v>
@@ -9383,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A158&lt;&gt;A157,1,E157+1)</f>
         <v>5</v>
       </c>
       <c r="F158" s="6">
@@ -9398,7 +9404,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>53</v>
@@ -9410,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="E159" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A159&lt;&gt;A158,1,E158+1)</f>
         <v>6</v>
       </c>
       <c r="F159" s="6">
@@ -9425,7 +9431,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>53</v>
@@ -9437,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A160&lt;&gt;A159,1,E159+1)</f>
         <v>7</v>
       </c>
       <c r="F160" s="6">
@@ -9452,7 +9458,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>53</v>
@@ -9464,7 +9470,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A161&lt;&gt;A160,1,E160+1)</f>
         <v>8</v>
       </c>
       <c r="F161" s="6">
@@ -9479,7 +9485,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>53</v>
@@ -9491,7 +9497,7 @@
         <v>1</v>
       </c>
       <c r="E162" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A162&lt;&gt;A161,1,E161+1)</f>
         <v>9</v>
       </c>
       <c r="F162" s="6">
@@ -9506,7 +9512,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>53</v>
@@ -9518,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A163&lt;&gt;A162,1,E162+1)</f>
         <v>10</v>
       </c>
       <c r="F163" s="6">
@@ -9532,8 +9538,8 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164" s="6">
-        <v>18</v>
+      <c r="A164" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>53</v>
@@ -9545,7 +9551,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A164&lt;&gt;A163,1,E163+1)</f>
         <v>1</v>
       </c>
       <c r="F164" s="6">
@@ -9559,8 +9565,8 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="6">
-        <v>18</v>
+      <c r="A165" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>53</v>
@@ -9572,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A165&lt;&gt;A164,1,E164+1)</f>
         <v>2</v>
       </c>
       <c r="F165" s="6">
@@ -9586,8 +9592,8 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="6">
-        <v>18</v>
+      <c r="A166" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>53</v>
@@ -9599,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A166&lt;&gt;A165,1,E165+1)</f>
         <v>3</v>
       </c>
       <c r="F166" s="6">
@@ -9613,8 +9619,8 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="6">
-        <v>18</v>
+      <c r="A167" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>53</v>
@@ -9626,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A167&lt;&gt;A166,1,E166+1)</f>
         <v>4</v>
       </c>
       <c r="F167" s="6">
@@ -9640,8 +9646,8 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168" s="6">
-        <v>18</v>
+      <c r="A168" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>53</v>
@@ -9653,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A168&lt;&gt;A167,1,E167+1)</f>
         <v>5</v>
       </c>
       <c r="F168" s="6">
@@ -9667,8 +9673,8 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="6">
-        <v>18</v>
+      <c r="A169" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>53</v>
@@ -9680,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A169&lt;&gt;A168,1,E168+1)</f>
         <v>6</v>
       </c>
       <c r="F169" s="6">
@@ -9694,8 +9700,8 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="6">
-        <v>18</v>
+      <c r="A170" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>53</v>
@@ -9707,7 +9713,7 @@
         <v>1</v>
       </c>
       <c r="E170" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A170&lt;&gt;A169,1,E169+1)</f>
         <v>7</v>
       </c>
       <c r="F170" s="6">
@@ -9721,8 +9727,8 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="6">
-        <v>18</v>
+      <c r="A171" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>53</v>
@@ -9734,7 +9740,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A171&lt;&gt;A170,1,E170+1)</f>
         <v>8</v>
       </c>
       <c r="F171" s="6">
@@ -9748,8 +9754,8 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="6">
-        <v>18</v>
+      <c r="A172" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>53</v>
@@ -9761,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="E172" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A172&lt;&gt;A171,1,E171+1)</f>
         <v>9</v>
       </c>
       <c r="F172" s="6">
@@ -9775,8 +9781,8 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="6">
-        <v>18</v>
+      <c r="A173" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>53</v>
@@ -9788,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A173&lt;&gt;A172,1,E172+1)</f>
         <v>10</v>
       </c>
       <c r="F173" s="6">
@@ -9803,7 +9809,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>50</v>
@@ -9815,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A174&lt;&gt;A173,1,E173+1)</f>
         <v>1</v>
       </c>
       <c r="F174" s="6">
@@ -9830,7 +9836,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>50</v>
@@ -9842,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A175&lt;&gt;A174,1,E174+1)</f>
         <v>2</v>
       </c>
       <c r="F175" s="6">
@@ -9857,7 +9863,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>50</v>
@@ -9869,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A176&lt;&gt;A175,1,E175+1)</f>
         <v>3</v>
       </c>
       <c r="F176" s="6">
@@ -9884,7 +9890,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>50</v>
@@ -9896,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="E177" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A177&lt;&gt;A176,1,E176+1)</f>
         <v>4</v>
       </c>
       <c r="F177" s="6">
@@ -9911,7 +9917,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>50</v>
@@ -9923,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A178&lt;&gt;A177,1,E177+1)</f>
         <v>5</v>
       </c>
       <c r="F178" s="6">
@@ -9938,7 +9944,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>50</v>
@@ -9950,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="E179" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A179&lt;&gt;A178,1,E178+1)</f>
         <v>6</v>
       </c>
       <c r="F179" s="6">
@@ -9965,7 +9971,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>64</v>
@@ -9977,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="E180" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A180&lt;&gt;A179,1,E179+1)</f>
         <v>1</v>
       </c>
       <c r="F180" s="6">
@@ -9992,7 +9998,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>64</v>
@@ -10004,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E181" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A181&lt;&gt;A180,1,E180+1)</f>
         <v>2</v>
       </c>
       <c r="F181" s="6">
@@ -10019,7 +10025,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>64</v>
@@ -10031,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="E182" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A182&lt;&gt;A181,1,E181+1)</f>
         <v>3</v>
       </c>
       <c r="F182" s="6">
@@ -10046,7 +10052,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>64</v>
@@ -10058,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="E183" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A183&lt;&gt;A182,1,E182+1)</f>
         <v>4</v>
       </c>
       <c r="F183" s="6">
@@ -10073,7 +10079,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>64</v>
@@ -10085,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E184" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A184&lt;&gt;A183,1,E183+1)</f>
         <v>5</v>
       </c>
       <c r="F184" s="6">
@@ -10100,7 +10106,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>64</v>
@@ -10112,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="E185" s="6">
-        <f t="shared" si="2"/>
+        <f>IF(A185&lt;&gt;A184,1,E184+1)</f>
         <v>6</v>
       </c>
       <c r="F185" s="6">
